--- a/data/tasks_registry.xlsx
+++ b/data/tasks_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>task_id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>MOM-20260107-001-T02</t>
   </si>
   <si>
+    <t>MOM-20260107-001</t>
+  </si>
+  <si>
     <t>Praveen</t>
   </si>
   <si>
@@ -79,7 +82,13 @@
     <t>OPEN</t>
   </si>
   <si>
+    <t>2026-01-07 19:51:37</t>
+  </si>
+  <si>
     <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
   </si>
   <si>
     <t>praveen.chaudhary@koenig-solutions.com</t>
@@ -89,9 +98,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -144,12 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,52 +506,58 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2">
-        <v>46029.8275230787</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
-        <v>46036.8275230787</v>
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>46029.8275230787</v>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2">
-        <v>46036.8275230787</v>
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/tasks_registry.xlsx
+++ b/data/tasks_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>task_id</t>
   </si>
@@ -61,6 +61,30 @@
     <t>cc</t>
   </si>
   <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>Last Updated</t>
+  </si>
+  <si>
     <t>MOM-20260107-001-T01</t>
   </si>
   <si>
@@ -85,6 +109,12 @@
     <t>2026-01-07 19:51:37</t>
   </si>
   <si>
+    <t>2026-01-08 18:32:09</t>
+  </si>
+  <si>
+    <t>2026-01-08 18:32:10</t>
+  </si>
+  <si>
     <t>MEDIUM</t>
   </si>
   <si>
@@ -92,12 +122,18 @@
   </si>
   <si>
     <t>praveen.chaudhary@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -150,11 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,63 +538,111 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>46030</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="2">
+        <v>46030.77352458333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>46030</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="2">
+        <v>46030.77353602845</v>
       </c>
     </row>
   </sheetData>

--- a/data/tasks_registry.xlsx
+++ b/data/tasks_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>task_id</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Last Updated</t>
   </si>
   <si>
+    <t>Auto Reply Sent</t>
+  </si>
+  <si>
     <t>MOM-20260107-001-T01</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>We should obtain SOA from all creditors to match balances and avoid issues during Income Tax assessments. What is the current status?</t>
   </si>
   <si>
-    <t>OPEN</t>
+    <t>COMPLETED</t>
   </si>
   <si>
     <t>2026-01-07 19:51:37</t>
@@ -124,7 +127,7 @@
     <t>praveen.chaudhary@koenig-solutions.com</t>
   </si>
   <si>
-    <t>COMPLETED</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -486,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,87 +565,93 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2">
         <v>46030</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="2">
+        <v>46030.80701517361</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="2">
-        <v>46030.77352458333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
       </c>
       <c r="I3" s="2">
         <v>46030</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W3" s="2">
-        <v>46030.77353602845</v>
+        <v>46030.80679405093</v>
       </c>
     </row>
   </sheetData>

--- a/data/tasks_registry.xlsx
+++ b/data/tasks_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="107">
   <si>
     <t>task_id</t>
   </si>
@@ -22,109 +22,318 @@
     <t>meeting_id</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>task_text</t>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>Last Updated</t>
+  </si>
+  <si>
+    <t>Last Reminder Date</t>
+  </si>
+  <si>
+    <t>Last Reminder On</t>
+  </si>
+  <si>
+    <t>Completed Date</t>
+  </si>
+  <si>
+    <t>Auto Reply Sent</t>
+  </si>
+  <si>
+    <t>last_reminder</t>
+  </si>
+  <si>
+    <t>days_taken</t>
+  </si>
+  <si>
+    <t>performance_rating</t>
+  </si>
+  <si>
+    <t>MOM-20260107-001-T01</t>
+  </si>
+  <si>
+    <t>MOM-20260107-001-T02</t>
+  </si>
+  <si>
+    <t>MAN-20260112-001</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T01</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T02</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T03</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T04</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T05</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T06</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T07</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T08</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T09</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001-T10</t>
+  </si>
+  <si>
+    <t>MAN-20260112-002</t>
+  </si>
+  <si>
+    <t>MAN-20260112-003</t>
+  </si>
+  <si>
+    <t>MAN-20260112-004</t>
+  </si>
+  <si>
+    <t>MAN-20260112-005</t>
+  </si>
+  <si>
+    <t>MAN-20260112-006</t>
+  </si>
+  <si>
+    <t>MAN-20260112-007</t>
+  </si>
+  <si>
+    <t>MAN-20260112-008</t>
+  </si>
+  <si>
+    <t>MAN-20260112-009</t>
+  </si>
+  <si>
+    <t>MAN-20260112-010</t>
+  </si>
+  <si>
+    <t>MAN-20260112-011</t>
+  </si>
+  <si>
+    <t>MAN-20260113-001</t>
+  </si>
+  <si>
+    <t>MAN-20260113-002</t>
+  </si>
+  <si>
+    <t>MOM-20260107-001</t>
+  </si>
+  <si>
+    <t>MANUAL-20260112</t>
+  </si>
+  <si>
+    <t>MOM-20260112-001</t>
+  </si>
+  <si>
+    <t>MANUAL-20260113</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Follow up on the Japan Entity closely.</t>
+  </si>
+  <si>
+    <t>We should obtain SOA from all creditors to match balances and avoid issues during Income Tax assessments. What is the current status?</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Japan Entity</t>
+  </si>
+  <si>
+    <t>We need bills against every payment, even if AP has approved it for Rohit Sir.Hope you are working on this?</t>
+  </si>
+  <si>
+    <t>Add the point regarding 2% TDS and revise it in the AP guidelines.</t>
+  </si>
+  <si>
+    <t>Your team member should complete the books in Tally for all individuals, including HUF. Deadline: 15th December. Please confirm status.</t>
+  </si>
+  <si>
+    <t>Please close ODI for Malaysia as soon as possible. Confirm status</t>
+  </si>
+  <si>
+    <t>Provide the Balance Sheet by 15th June 2026; a foreign trip will be sponsored.</t>
+  </si>
+  <si>
+    <t>South Africa directorship change. What is the status</t>
+  </si>
+  <si>
+    <t>Recheck and confirm that all addresses are updated across all platforms for all entities. Inform me once completed.</t>
+  </si>
+  <si>
+    <t>Noted the new portal for the UK.What is the status?</t>
+  </si>
+  <si>
+    <t>Prepare Q1 Sales Report</t>
+  </si>
+  <si>
+    <t>Review Contract Terms</t>
+  </si>
+  <si>
+    <t>Customer Feedback Analysis</t>
+  </si>
+  <si>
+    <t>Update Marketing Materials</t>
+  </si>
+  <si>
+    <t>Team Meeting Preparation</t>
+  </si>
+  <si>
+    <t>"Test URGENT Reminder System"</t>
+  </si>
+  <si>
+    <t>DELETED</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>URGENT</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>praveen.chaudhary@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>praveen_chaudhary@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>sarika.gupta@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Priority: MEDIUM</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>created_on</t>
-  </si>
-  <si>
-    <t>last_reminder_on</t>
-  </si>
-  <si>
-    <t>last_reminder</t>
-  </si>
-  <si>
-    <t>last_reminder_date</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>deadline</t>
-  </si>
-  <si>
-    <t>completed_date</t>
-  </si>
-  <si>
-    <t>days_taken</t>
-  </si>
-  <si>
-    <t>performance_rating</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Created On</t>
-  </si>
-  <si>
-    <t>Last Updated</t>
-  </si>
-  <si>
-    <t>Auto Reply Sent</t>
-  </si>
-  <si>
-    <t>MOM-20260107-001-T01</t>
-  </si>
-  <si>
-    <t>MOM-20260107-001-T02</t>
-  </si>
-  <si>
-    <t>MOM-20260107-001</t>
-  </si>
-  <si>
-    <t>Praveen</t>
-  </si>
-  <si>
-    <t>Follow up on the Japan Entity closely.</t>
-  </si>
-  <si>
-    <t>We should obtain SOA from all creditors to match balances and avoid issues during Income Tax assessments. What is the current status?</t>
-  </si>
-  <si>
-    <t>COMPLETED</t>
+    <t>MOM: Mom001</t>
+  </si>
+  <si>
+    <t>Test overdue alert</t>
+  </si>
+  <si>
+    <t>Test due soon</t>
+  </si>
+  <si>
+    <t>Test medium priority</t>
+  </si>
+  <si>
+    <t>Test low priority</t>
+  </si>
+  <si>
+    <t>Test workload distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Japan Entity
+</t>
   </si>
   <si>
     <t>2026-01-07 19:51:37</t>
   </si>
   <si>
+    <t>2026-01-12 14:47:18</t>
+  </si>
+  <si>
     <t>2026-01-08 18:32:09</t>
   </si>
   <si>
     <t>2026-01-08 18:32:10</t>
   </si>
   <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>praveen.chaudhary@koenig-solutions.com</t>
+    <t>2026-01-12 14:26:30</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:42:17</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:30</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:31</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:32</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:33</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:35</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:36</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:37</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:38</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:39</t>
+  </si>
+  <si>
+    <t>2026-01-12 14:47:40</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
   </si>
   <si>
     <t>Yes</t>
@@ -489,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,108 +759,1162 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2">
+        <v>46030.80701517361</v>
+      </c>
+      <c r="L2" s="2">
+        <v>46030</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2">
+        <v>46030.80679405093</v>
+      </c>
+      <c r="L3" s="2">
+        <v>46030</v>
+      </c>
+      <c r="M3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2">
+        <v>46032</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="2">
+        <v>46032.76025396991</v>
+      </c>
+      <c r="K4" s="2">
+        <v>46034.52764412037</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2">
+        <v>46034</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="2">
+        <v>46032.78385734954</v>
+      </c>
+      <c r="K5" s="2">
+        <v>46034.53910927083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2">
+        <v>46034</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2">
+        <v>46032.78388686343</v>
+      </c>
+      <c r="K6" s="2">
+        <v>46034.5277342824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2">
+        <v>46034</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="2">
+        <v>46034.59777547454</v>
+      </c>
+      <c r="K7" s="2">
+        <v>46034.59893824074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2">
+        <v>46034</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2">
+        <v>46034.59780533564</v>
+      </c>
+      <c r="K8" s="2">
+        <v>46034.5988919213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="2">
+        <v>46035</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2">
+        <v>46034.60157754629</v>
+      </c>
+      <c r="K9" s="2">
+        <v>46034.60259439815</v>
+      </c>
+      <c r="L9" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="2">
+        <v>46035</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="2">
+        <v>46034.61254776621</v>
+      </c>
+      <c r="K10" s="2">
+        <v>46034.61895785879</v>
+      </c>
+      <c r="L10" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="2">
+        <v>46034.61891097223</v>
+      </c>
+      <c r="L11" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="2">
+        <v>46034.61883440972</v>
+      </c>
+      <c r="L12" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2">
+        <v>46034.61878673611</v>
+      </c>
+      <c r="L13" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="2">
+        <v>46034.61875680555</v>
+      </c>
+      <c r="L14" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="2">
+        <v>46034.61872561343</v>
+      </c>
+      <c r="L15" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2">
+        <v>46034.61869570602</v>
+      </c>
+      <c r="L16" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="2">
+        <v>46034.61866244213</v>
+      </c>
+      <c r="L17" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2">
+        <v>46034.6186224074</v>
+      </c>
+      <c r="L18" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="2">
+        <v>46034.61858427084</v>
+      </c>
+      <c r="L19" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="2">
+        <v>46034.61854521991</v>
+      </c>
+      <c r="L20" s="2">
+        <v>46034</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="2">
+        <v>46034</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="2">
+        <v>46034.74413224537</v>
+      </c>
+      <c r="K21" s="2">
+        <v>46034.78823054398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2">
-        <v>46030</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="2">
+        <v>46035</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="2">
+        <v>46034.74413261574</v>
+      </c>
+      <c r="K22" s="2">
+        <v>46034.78828273148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="2">
+        <v>46037</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="2">
+        <v>46034.74413277778</v>
+      </c>
+      <c r="K23" s="2">
+        <v>46035.63522178726</v>
+      </c>
+      <c r="L23" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46041</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="2">
+        <v>46034.74413293981</v>
+      </c>
+      <c r="K24" s="2">
+        <v>46035.63517429398</v>
+      </c>
+      <c r="L24" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2">
+        <v>46039</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="2">
+        <v>46034.74413311343</v>
+      </c>
+      <c r="K25" s="2">
+        <v>46035.63520734954</v>
+      </c>
+      <c r="L25" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="2">
-        <v>46030.80701517361</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="2">
+        <v>46034</v>
+      </c>
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="2">
+        <v>46034.74469945602</v>
+      </c>
+      <c r="K26" s="2">
+        <v>46035.63504590277</v>
+      </c>
+      <c r="L26" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2">
-        <v>46030</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="2">
-        <v>46030.80679405093</v>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="2">
+        <v>46035</v>
+      </c>
+      <c r="I27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="2">
+        <v>46034.74469974537</v>
+      </c>
+      <c r="K27" s="2">
+        <v>46035.63506230324</v>
+      </c>
+      <c r="L27" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46037</v>
+      </c>
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="2">
+        <v>46034.74469991898</v>
+      </c>
+      <c r="K28" s="2">
+        <v>46035.63507185185</v>
+      </c>
+      <c r="L28" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="2">
+        <v>46041</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="2">
+        <v>46034.74470010417</v>
+      </c>
+      <c r="K29" s="2">
+        <v>46035.6350759838</v>
+      </c>
+      <c r="L29" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="2">
+        <v>46039</v>
+      </c>
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="2">
+        <v>46034.74470027778</v>
+      </c>
+      <c r="K30" s="2">
+        <v>46035.63507998842</v>
+      </c>
+      <c r="L30" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="2">
+        <v>46035</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" s="2">
+        <v>46035.55000159722</v>
+      </c>
+      <c r="K31" s="2">
+        <v>46035.63508664352</v>
+      </c>
+      <c r="L31" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="2">
+        <v>46035</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="2">
+        <v>46035.55018605324</v>
+      </c>
+      <c r="K32" s="2">
+        <v>46035.63509164352</v>
+      </c>
+      <c r="L32" s="2">
+        <v>46035</v>
+      </c>
+      <c r="M32" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/tasks_registry.xlsx
+++ b/data/tasks_registry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="110">
   <si>
     <t>task_id</t>
   </si>
@@ -145,6 +145,9 @@
     <t>MAN-20260113-002</t>
   </si>
   <si>
+    <t>MAN-20260115-001</t>
+  </si>
+  <si>
     <t>MOM-20260107-001</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>MANUAL-20260113</t>
   </si>
   <si>
+    <t>MANUAL-20260115</t>
+  </si>
+  <si>
     <t>Praveen</t>
   </si>
   <si>
@@ -218,6 +224,9 @@
   </si>
   <si>
     <t>"Test URGENT Reminder System"</t>
+  </si>
+  <si>
+    <t>praveen</t>
   </si>
   <si>
     <t>DELETED</t>
@@ -698,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,28 +774,28 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K2" s="2">
         <v>46030.80701517361</v>
@@ -795,10 +804,10 @@
         <v>46030</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -806,28 +815,28 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K3" s="2">
         <v>46030.80679405093</v>
@@ -836,30 +845,30 @@
         <v>46030</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2">
         <v>46032</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2">
         <v>46032.76025396991</v>
@@ -868,27 +877,27 @@
         <v>46034.52764412037</v>
       </c>
       <c r="O4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
         <v>46034</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2">
         <v>46032.78385734954</v>
@@ -899,22 +908,22 @@
     </row>
     <row r="6" spans="1:18">
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2">
         <v>46034</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2">
         <v>46032.78388686343</v>
@@ -925,25 +934,25 @@
     </row>
     <row r="7" spans="1:18">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2">
         <v>46034</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2">
         <v>46034.59777547454</v>
@@ -954,25 +963,25 @@
     </row>
     <row r="8" spans="1:18">
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2">
         <v>46034</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2">
         <v>46034.59780533564</v>
@@ -983,25 +992,25 @@
     </row>
     <row r="9" spans="1:18">
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2">
         <v>46035</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2">
         <v>46034.60157754629</v>
@@ -1013,7 +1022,7 @@
         <v>46034</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1021,28 +1030,28 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2">
         <v>46035</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J10" s="2">
         <v>46034.61254776621</v>
@@ -1054,7 +1063,7 @@
         <v>46034</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1062,31 +1071,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K11" s="2">
         <v>46034.61891097223</v>
@@ -1095,7 +1104,7 @@
         <v>46034</v>
       </c>
       <c r="M11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1103,31 +1112,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K12" s="2">
         <v>46034.61883440972</v>
@@ -1136,7 +1145,7 @@
         <v>46034</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1144,31 +1153,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K13" s="2">
         <v>46034.61878673611</v>
@@ -1177,7 +1186,7 @@
         <v>46034</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1185,31 +1194,31 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K14" s="2">
         <v>46034.61875680555</v>
@@ -1218,7 +1227,7 @@
         <v>46034</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1226,31 +1235,31 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K15" s="2">
         <v>46034.61872561343</v>
@@ -1259,7 +1268,7 @@
         <v>46034</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1267,31 +1276,31 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2">
         <v>46034.61869570602</v>
@@ -1300,7 +1309,7 @@
         <v>46034</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1308,31 +1317,31 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K17" s="2">
         <v>46034.61866244213</v>
@@ -1341,7 +1350,7 @@
         <v>46034</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1349,31 +1358,31 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K18" s="2">
         <v>46034.6186224074</v>
@@ -1382,7 +1391,7 @@
         <v>46034</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1390,31 +1399,31 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K19" s="2">
         <v>46034.61858427084</v>
@@ -1423,7 +1432,7 @@
         <v>46034</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1431,31 +1440,31 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K20" s="2">
         <v>46034.61854521991</v>
@@ -1464,7 +1473,7 @@
         <v>46034</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1472,25 +1481,25 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2">
         <v>46034</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J21" s="2">
         <v>46034.74413224537</v>
@@ -1504,25 +1513,25 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2">
         <v>46035</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2">
         <v>46034.74413261574</v>
@@ -1536,37 +1545,37 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2">
         <v>46037</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J23" s="2">
         <v>46034.74413277778</v>
       </c>
       <c r="K23" s="2">
-        <v>46035.63522178726</v>
+        <v>46035.63522178241</v>
       </c>
       <c r="L23" s="2">
         <v>46035</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1574,25 +1583,25 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2">
         <v>46041</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J24" s="2">
         <v>46034.74413293981</v>
@@ -1604,7 +1613,7 @@
         <v>46035</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1612,25 +1621,25 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2">
         <v>46039</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J25" s="2">
         <v>46034.74413311343</v>
@@ -1642,7 +1651,7 @@
         <v>46035</v>
       </c>
       <c r="M25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1650,25 +1659,25 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2">
         <v>46034</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J26" s="2">
         <v>46034.74469945602</v>
@@ -1680,7 +1689,7 @@
         <v>46035</v>
       </c>
       <c r="M26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1688,25 +1697,25 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2">
         <v>46035</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2">
         <v>46034.74469974537</v>
@@ -1718,7 +1727,7 @@
         <v>46035</v>
       </c>
       <c r="M27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1726,25 +1735,25 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2">
         <v>46037</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2">
         <v>46034.74469991898</v>
@@ -1756,7 +1765,7 @@
         <v>46035</v>
       </c>
       <c r="M28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1764,25 +1773,25 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2">
         <v>46041</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J29" s="2">
         <v>46034.74470010417</v>
@@ -1794,7 +1803,7 @@
         <v>46035</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1802,25 +1811,25 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2">
         <v>46039</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J30" s="2">
         <v>46034.74470027778</v>
@@ -1832,7 +1841,7 @@
         <v>46035</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1840,28 +1849,28 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2">
         <v>46035</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J31" s="2">
         <v>46035.55000159722</v>
@@ -1873,7 +1882,7 @@
         <v>46035</v>
       </c>
       <c r="M31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1881,28 +1890,28 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2">
         <v>46035</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J32" s="2">
         <v>46035.55018605324</v>
@@ -1914,7 +1923,39 @@
         <v>46035</v>
       </c>
       <c r="M32" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="2">
+        <v>46037</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="2">
+        <v>46037.78684002315</v>
+      </c>
+      <c r="K33" s="2">
+        <v>46037.79896162469</v>
       </c>
     </row>
   </sheetData>
